--- a/biology/Zoologie/Alcis/Alcis.xlsx
+++ b/biology/Zoologie/Alcis/Alcis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcis est un genre de lépidoptères (papillons) de la famille des géométridés.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alcis angulifera (Butler, 1878)
@@ -524,7 +538,7 @@
 Alcis granitaria (Moore, 1888)
 Alcis hemiphanes Prout 
 Alcis jubata (Thunberg, 1788) - syn. Alcis jubatus
-Alcis maculata (Moore, [1868])
+Alcis maculata (Moore, )
 Alcis medialbifera Inoue, 1972
 Alcis moesta (Butler, 1881)
 Alcis nigridorsaria (Guenée, 1857)
@@ -545,8 +559,43 @@
 Alcis subtincta Warren 
 Alcis tricotaria (Felder, 1867)
 Alcis variegata (Moore) 
-En Europe
-Selon Fauna Europaea                                      (31 janv. 2015)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alcis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En Europe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (31 janv. 2015) :
 Alcis bastelbergeri
 Alcis jubata
 Alcis repandata</t>
